--- a/data/trans_camb/P29_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 7,02</t>
+          <t>-18,49; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 9,6</t>
+          <t>-15,4; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 13,4</t>
+          <t>-25,42; 2,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,8</t>
+          <t>-6,43; 7,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,16</t>
+          <t>-5,8; 8,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,62</t>
+          <t>-5,46; 8,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 5,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 8,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 3,4</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 24,81</t>
+          <t>-43,44; 30,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 35,86</t>
+          <t>-38,74; 40,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 88,66</t>
+          <t>-57,91; 9,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 63,33</t>
+          <t>-35,72; 70,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 35,23</t>
+          <t>-34,35; 75,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 36,55</t>
+          <t>-31,45; 83,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,45; 31,3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,05; 42,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,59; 16,98</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>8,82</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 6,48</t>
+          <t>-16,53; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 7,36</t>
+          <t>-14,73; 8,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 11,21</t>
+          <t>-20,95; -0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 12,08</t>
+          <t>-4,78; 13,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 6,08</t>
+          <t>-6,28; 11,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 7,46</t>
+          <t>-0,48; 24,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 6,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 6,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 8,04</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-13,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>-34,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>50,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 27,42</t>
+          <t>-47,56; 22,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 30,35</t>
+          <t>-43,39; 34,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 75,58</t>
+          <t>-60,29; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 83,51</t>
+          <t>-21,96; 104,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 29,42</t>
+          <t>-29,36; 95,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 35,51</t>
+          <t>-4,56; 171,51</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-28,16; 33,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-31,57; 31,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,41; 40,75</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,9</t>
+          <t>18,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,18</t>
+          <t>22,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,17</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,7</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,35</t>
+          <t>30,12</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,53</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,33</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,49</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 40,25</t>
+          <t>-11,94; 46,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 44,99</t>
+          <t>-6,88; 61,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 24,85</t>
+          <t>-21,13; 27,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 25,7</t>
+          <t>-15,6; 18,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 28,41</t>
+          <t>-12,4; 24,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 34,01</t>
+          <t>7,86; 48,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 26,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 38,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 31,85</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>101,68%</t>
+          <t>100,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>117,64%</t>
+          <t>119,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>204,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>85,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92,41%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 341,08</t>
+          <t>-36,37; 532,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 394,96</t>
+          <t>-44,4; 855,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 273,77</t>
+          <t>-73,92; 320,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 260,84</t>
+          <t>-71,66; 280,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,96; 207,66</t>
+          <t>-61,72; 391,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,61; 241,78</t>
+          <t>13,84; 793,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-29,77; 272,94</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 405,88</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 305,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 6,39</t>
+          <t>-10,7; 6,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 8,9</t>
+          <t>-9,12; 9,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 10,12</t>
+          <t>-17,6; -0,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 9,01</t>
+          <t>-2,77; 7,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,61</t>
+          <t>-3,49; 6,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,82</t>
+          <t>1,27; 14,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 5,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 7,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 5,05</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>-26,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 24,95</t>
+          <t>-30,76; 26,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 34,67</t>
+          <t>-26,58; 36,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 67,89</t>
+          <t>-48,78; -0,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 58,96</t>
+          <t>-16,07; 57,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 32,23</t>
+          <t>-20,51; 51,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 36,89</t>
+          <t>5,5; 105,2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 26,78</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 34,5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 25,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
